--- a/template_task_hoangbao.xlsx
+++ b/template_task_hoangbao.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t>Fix Light Theme + Dark Theme</t>
+  </si>
+  <si>
+    <t>20/04</t>
+  </si>
+  <si>
+    <t>23/04</t>
+  </si>
+  <si>
+    <t>21/04</t>
+  </si>
+  <si>
+    <t>Finish  Merge Light + Dark Theme</t>
   </si>
 </sst>
 </file>
@@ -121,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +163,24 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -188,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -347,11 +380,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -415,17 +459,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,92 +469,55 @@
     <xf numFmtId="9" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -778,7 +776,7 @@
   <dimension ref="A1:J986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -822,7 +820,7 @@
       <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="41" t="s">
         <v>8</v>
       </c>
     </row>
@@ -851,10 +849,10 @@
       <c r="H2" s="11">
         <v>1</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -881,10 +879,10 @@
       <c r="H3" s="15">
         <v>0.5</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="26"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -913,10 +911,10 @@
         <f>SUM(H5:H7)/3</f>
         <v>0.9</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
@@ -943,10 +941,10 @@
       <c r="H5" s="18">
         <v>1</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="26"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -973,10 +971,10 @@
       <c r="H6" s="18">
         <v>0.9</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="26"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -1003,10 +1001,10 @@
       <c r="H7" s="18">
         <v>0.8</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="26"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1033,10 +1031,10 @@
       <c r="H8" s="11">
         <v>1</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="26"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1063,10 +1061,10 @@
       <c r="H9" s="11">
         <v>1</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="26"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1093,10 +1091,10 @@
       <c r="H10" s="11">
         <v>1</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1123,10 +1121,10 @@
       <c r="H11" s="11">
         <v>1</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="26"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1153,10 +1151,10 @@
       <c r="H12" s="11">
         <v>1</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="26"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1183,10 +1181,10 @@
       <c r="H13" s="11">
         <v>1</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="26"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
@@ -1213,22 +1211,22 @@
       <c r="H14" s="11">
         <v>1</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="26"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="25">
         <v>45050</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="25">
         <v>45050</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="26">
         <v>1</v>
       </c>
       <c r="E15" s="22" t="s">
@@ -1243,59 +1241,90 @@
       <c r="H15" s="11">
         <v>1</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="30"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="25">
         <v>45081</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="25">
         <v>45081</v>
       </c>
-      <c r="D16" s="34">
-        <v>1</v>
-      </c>
-      <c r="E16" s="32" t="s">
+      <c r="D16" s="33">
+        <v>1</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="21">
         <v>45111</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="21">
         <v>45142</v>
       </c>
-      <c r="H16" s="11">
-        <v>1</v>
-      </c>
-      <c r="I16" s="24" t="s">
+      <c r="H16" s="35">
+        <v>1</v>
+      </c>
+      <c r="I16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="40">
+        <v>1</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2254,17 +2283,17 @@
   <mergeCells count="1">
     <mergeCell ref="J2:J15"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2 D4:D16">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D2 D4:D17">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H4:H16">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="H2 H4:H17">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>